--- a/ig/M-Priour-patch-5/ValueSet-TypeCarteVS.xlsx
+++ b/ig/M-Priour-patch-5/ValueSet-TypeCarteVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T15:22:09+00:00</t>
+    <t>2023-02-23T15:22:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/M-Priour-patch-5/ValueSet-TypeCarteVS.xlsx
+++ b/ig/M-Priour-patch-5/ValueSet-TypeCarteVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T15:22:25+00:00</t>
+    <t>2023-02-26T16:18:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/M-Priour-patch-5/ValueSet-TypeCarteVS.xlsx
+++ b/ig/M-Priour-patch-5/ValueSet-TypeCarteVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-26T16:18:10+00:00</t>
+    <t>2023-02-26T16:19:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/M-Priour-patch-5/ValueSet-TypeCarteVS.xlsx
+++ b/ig/M-Priour-patch-5/ValueSet-TypeCarteVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-26T16:19:09+00:00</t>
+    <t>2023-02-26T16:21:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/M-Priour-patch-5/ValueSet-TypeCarteVS.xlsx
+++ b/ig/M-Priour-patch-5/ValueSet-TypeCarteVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-26T16:21:17+00:00</t>
+    <t>2023-02-26T16:21:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/M-Priour-patch-5/ValueSet-TypeCarteVS.xlsx
+++ b/ig/M-Priour-patch-5/ValueSet-TypeCarteVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-26T16:21:35+00:00</t>
+    <t>2023-02-26T16:22:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/M-Priour-patch-5/ValueSet-TypeCarteVS.xlsx
+++ b/ig/M-Priour-patch-5/ValueSet-TypeCarteVS.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-26T16:22:52+00:00</t>
+    <t>2023-02-26T16:31:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
